--- a/doc/小组log日志/201708044233-谢国欣.xlsx
+++ b/doc/小组log日志/201708044233-谢国欣.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期时间</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>看了看mvc的操作</t>
+  </si>
+  <si>
+    <t>2019/5/28 20:30--22:30</t>
+  </si>
+  <si>
+    <t>修改以前写的属性</t>
   </si>
 </sst>
 </file>
@@ -100,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -127,6 +133,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -144,9 +164,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,22 +194,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -197,7 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,21 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,22 +262,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,181 +278,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +491,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -508,21 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -542,21 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,130 +583,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,10 +1045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1156,6 +1162,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044233-谢国欣.xlsx
+++ b/doc/小组log日志/201708044233-谢国欣.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期时间</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>修改以前写的属性</t>
+  </si>
+  <si>
+    <t>2019/6/10 18.30--20:30</t>
+  </si>
+  <si>
+    <t>讨论怎么实现业务</t>
   </si>
 </sst>
 </file>
@@ -106,8 +112,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -120,21 +126,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,63 +192,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,15 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,9 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,19 +278,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,157 +440,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +469,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,21 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -521,16 +527,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1170,6 +1176,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044233-谢国欣.xlsx
+++ b/doc/小组log日志/201708044233-谢国欣.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期时间</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>讨论怎么实现业务</t>
+  </si>
+  <si>
+    <t>2019/6/17 18.30--20:30</t>
+  </si>
+  <si>
+    <t>看业务实现</t>
   </si>
 </sst>
 </file>
@@ -111,8 +117,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -125,6 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -132,6 +146,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -140,7 +169,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,31 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,70 +254,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,49 +284,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,133 +422,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +475,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,22 +527,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,39 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -577,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1184,6 +1190,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044233-谢国欣.xlsx
+++ b/doc/小组log日志/201708044233-谢国欣.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>日期时间</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>看业务实现</t>
+  </si>
+  <si>
+    <t>2019/6/18 18.30--20:30</t>
+  </si>
+  <si>
+    <t>确定实体</t>
   </si>
 </sst>
 </file>
@@ -117,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -131,9 +137,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,21 +175,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +212,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,9 +236,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,21 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -223,7 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,39 +273,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,181 +290,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +481,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,6 +504,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,15 +561,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -564,17 +581,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,10 +1063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1198,6 +1204,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044233-谢国欣.xlsx
+++ b/doc/小组log日志/201708044233-谢国欣.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日期时间</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>确定实体</t>
+  </si>
+  <si>
+    <t>2019/6/21 18.30--20:30</t>
+  </si>
+  <si>
+    <t>学习nodejs</t>
   </si>
 </sst>
 </file>
@@ -124,8 +130,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -137,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -145,7 +159,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,58 +204,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -242,6 +241,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -264,22 +286,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,6 +296,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,12 +320,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,31 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,121 +452,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,30 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,6 +516,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -545,24 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +569,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1212,6 +1218,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044233-谢国欣.xlsx
+++ b/doc/小组log日志/201708044233-谢国欣.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>日期时间</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>学习nodejs</t>
+  </si>
+  <si>
+    <t>2019/6/24 18.30--20:30</t>
+  </si>
+  <si>
+    <t>学习vuejs</t>
   </si>
 </sst>
 </file>
@@ -130,8 +136,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -143,53 +149,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,55 +248,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,6 +276,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +496,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +550,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -540,45 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -595,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1226,6 +1232,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044233-谢国欣.xlsx
+++ b/doc/小组log日志/201708044233-谢国欣.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>日期时间</t>
   </si>
@@ -40,6 +40,90 @@
     <t>尝试数据库的远程连接</t>
   </si>
   <si>
+    <t>2019/4/8 18:30--20:30</t>
+  </si>
+  <si>
+    <t>确定实例的分配</t>
+  </si>
+  <si>
+    <t>2019/4/9 18:30--20:30</t>
+  </si>
+  <si>
+    <t>查看书上的第三章了解项目的整体构成</t>
+  </si>
+  <si>
+    <t>2019/4/10 18:30--20:30</t>
+  </si>
+  <si>
+    <t>了解了各个部分的作用</t>
+  </si>
+  <si>
+    <t>2019/4/11 18:30--20:30</t>
+  </si>
+  <si>
+    <t>看核心基础ioc，明白它是通过映射进行操作的</t>
+  </si>
+  <si>
+    <t>2019/4/12 19:30--21:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看ioc装配bean，注入参数 </t>
+  </si>
+  <si>
+    <t>2019/4/15 19:30--21:30</t>
+  </si>
+  <si>
+    <t>复习了一下前面看的知识</t>
+  </si>
+  <si>
+    <t>2019/4/16 19:30--21:30</t>
+  </si>
+  <si>
+    <t>继续看ioc装配bean，方法比较多</t>
+  </si>
+  <si>
+    <t>2019/4/17 19:30--21:30</t>
+  </si>
+  <si>
+    <t>看到书中有一个各种方法的对比觉得基于注释的比较方便</t>
+  </si>
+  <si>
+    <t>2019/4/18 20:30--22:30</t>
+  </si>
+  <si>
+    <t>看spring容器高级主题，不太懂跳过，看aop</t>
+  </si>
+  <si>
+    <t>2019/4/19 20:30--22:30</t>
+  </si>
+  <si>
+    <t>通过网上的例子明确横切逻辑是什么</t>
+  </si>
+  <si>
+    <t>2019/4/22 20:30--22:30</t>
+  </si>
+  <si>
+    <t>看到各种形式的增强，总体有五类</t>
+  </si>
+  <si>
+    <t>2019/4/23 20:30--22:30</t>
+  </si>
+  <si>
+    <t>看到@aspectj和schema的aop</t>
+  </si>
+  <si>
+    <t>2019/4/24 20:00--22:00</t>
+  </si>
+  <si>
+    <t>看了看spring spel</t>
+  </si>
+  <si>
+    <t>2019/4/25 20:00--22:00</t>
+  </si>
+  <si>
+    <t>看到spring对dao的支持</t>
+  </si>
+  <si>
     <t>2019/5/15 20:30--22:30</t>
   </si>
   <si>
@@ -100,12 +184,54 @@
     <t>修改以前写的属性</t>
   </si>
   <si>
+    <t>2019/6/1 20:30--22:30</t>
+  </si>
+  <si>
+    <t>进行测试</t>
+  </si>
+  <si>
+    <t>2019/6/4 20:30--22:30</t>
+  </si>
+  <si>
+    <t>实现文档</t>
+  </si>
+  <si>
+    <t>2019/6/5 到 2019/6/9</t>
+  </si>
+  <si>
+    <t>学习activemq</t>
+  </si>
+  <si>
     <t>2019/6/10 18.30--20:30</t>
   </si>
   <si>
     <t>讨论怎么实现业务</t>
   </si>
   <si>
+    <t>2019/6/11 16:30--20:30</t>
+  </si>
+  <si>
+    <t>实现activemq</t>
+  </si>
+  <si>
+    <t>2019/6/12 18:30--20:30</t>
+  </si>
+  <si>
+    <t>实现web层的controller</t>
+  </si>
+  <si>
+    <t>2019/6/13 18:30--20:30</t>
+  </si>
+  <si>
+    <t>修改错误</t>
+  </si>
+  <si>
+    <t>2019/6/14 18:30--20:30</t>
+  </si>
+  <si>
+    <t>完善activemq的相关jar包</t>
+  </si>
+  <si>
     <t>2019/6/17 18.30--20:30</t>
   </si>
   <si>
@@ -118,6 +244,12 @@
     <t>确定实体</t>
   </si>
   <si>
+    <t>2019/6/19 16:30--20:30</t>
+  </si>
+  <si>
+    <t>添加增删改查的操作</t>
+  </si>
+  <si>
     <t>2019/6/21 18.30--20:30</t>
   </si>
   <si>
@@ -128,6 +260,18 @@
   </si>
   <si>
     <t>学习vuejs</t>
+  </si>
+  <si>
+    <t>2019/6/25 20:30--24:30</t>
+  </si>
+  <si>
+    <t>进行前端的书写</t>
+  </si>
+  <si>
+    <t>2019/6/26 8:50--10:00</t>
+  </si>
+  <si>
+    <t>实现修改操作</t>
   </si>
 </sst>
 </file>
@@ -150,6 +294,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -157,30 +308,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +345,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -217,6 +362,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -226,21 +386,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,32 +407,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,187 +446,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +637,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,50 +695,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -587,12 +711,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1168,7 +1312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1176,7 +1320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +1328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1192,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" s="1" customFormat="1" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1200,7 +1344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" s="1" customFormat="1" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1216,7 +1360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" s="1" customFormat="1" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1224,7 +1368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" s="1" customFormat="1" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1232,12 +1376,204 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" s="1" customFormat="1" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
